--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_20_3.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_20_3.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999524965016644</v>
+        <v>0.9999805286793628</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991873396895978</v>
+        <v>0.9991182490693772</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999604146197876</v>
+        <v>0.9999115767816282</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999953039293907</v>
+        <v>0.9998113399369803</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999801952257882</v>
+        <v>0.9999463213469508</v>
       </c>
       <c r="G2" t="n">
-        <v>4.434243053366506e-05</v>
+        <v>1.817562312264272e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0007585827280955631</v>
+        <v>0.0008230757893437537</v>
       </c>
       <c r="I2" t="n">
-        <v>1.572165790006306e-05</v>
+        <v>5.173478630590415e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>2.221901634943408e-06</v>
+        <v>6.186285667827647e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>8.971779767503232e-06</v>
+        <v>5.679882149209031e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003550545292602662</v>
+        <v>0.0002731861584103965</v>
       </c>
       <c r="M2" t="n">
-        <v>0.006659011227927542</v>
+        <v>0.004263287830142685</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000087698766158</v>
+        <v>1.000035947053484</v>
       </c>
       <c r="O2" t="n">
-        <v>0.006942499121953966</v>
+        <v>0.004444784819294298</v>
       </c>
       <c r="P2" t="n">
-        <v>94.04713707890758</v>
+        <v>95.83085850106065</v>
       </c>
       <c r="Q2" t="n">
-        <v>139.145542599031</v>
+        <v>140.9292640211841</v>
       </c>
     </row>
     <row r="3">
@@ -577,602 +577,602 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999587823535172</v>
+        <v>0.9999805300863241</v>
       </c>
       <c r="C3" t="n">
-        <v>0.999184405608849</v>
+        <v>0.9991182456681967</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999511804954445</v>
+        <v>0.9999115847276363</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999921553136746</v>
+        <v>0.9998113507908325</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999745031493624</v>
+        <v>0.9999463252255553</v>
       </c>
       <c r="G3" t="n">
-        <v>3.847486374607531e-05</v>
+        <v>1.817430978600174e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0007613215636832844</v>
+        <v>0.0008230789641964215</v>
       </c>
       <c r="I3" t="n">
-        <v>1.938906599744533e-05</v>
+        <v>5.173013724387332e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>3.711639543386261e-06</v>
+        <v>6.185929762983577e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>1.155035277041579e-05</v>
+        <v>5.679471743685454e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003479781577631569</v>
+        <v>0.0002731710331822712</v>
       </c>
       <c r="M3" t="n">
-        <v>0.006202810955210171</v>
+        <v>0.004263133798744973</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000076094116584</v>
+        <v>1.000035944456017</v>
       </c>
       <c r="O3" t="n">
-        <v>0.006466877459162265</v>
+        <v>0.004444624230461097</v>
       </c>
       <c r="P3" t="n">
-        <v>94.33101083921633</v>
+        <v>95.8310030225534</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.4294163593398</v>
+        <v>140.9294085426768</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_20_3_2</t>
+          <t>model_20_3_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999638225439699</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991805604248752</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999395280825357</v>
+        <v>0.9999115669109291</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999882700056626</v>
+        <v>0.9998113827614422</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999673662931703</v>
+        <v>0.9999463252535031</v>
       </c>
       <c r="G4" t="n">
-        <v>3.37700671973631e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0007649108741387675</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I4" t="n">
-        <v>2.401691720106364e-05</v>
+        <v>5.174056146905466e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>5.549936481894841e-06</v>
+        <v>6.184881425984146e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>1.478342684147924e-05</v>
+        <v>5.679468786444806e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0003424183345271747</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M4" t="n">
-        <v>0.005811201872019513</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000066789149594</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O4" t="n">
-        <v>0.006058596766557624</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P4" t="n">
-        <v>94.59187146742994</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q4" t="n">
-        <v>139.6902769875534</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_20_3_3</t>
+          <t>model_20_3_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999674965708818</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991766014035177</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999249800893708</v>
+        <v>0.9999115669109291</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999836492984044</v>
+        <v>0.9998113827614422</v>
       </c>
       <c r="F5" t="n">
-        <v>0.999958577472731</v>
+        <v>0.9999463252535031</v>
       </c>
       <c r="G5" t="n">
-        <v>3.034052434618339e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.000768606446795087</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I5" t="n">
-        <v>2.979477181417166e-05</v>
+        <v>5.174056146905466e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>7.73618065614829e-06</v>
+        <v>6.184881425984146e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>1.876485882116343e-05</v>
+        <v>5.679468786444806e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.000339833858924012</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005508223338444383</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N5" t="n">
-        <v>1.00006000633068</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O5" t="n">
-        <v>0.005742719809556174</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P5" t="n">
-        <v>94.80605260370726</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q5" t="n">
-        <v>139.9044581238307</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_20_3_4</t>
+          <t>model_20_3_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999702314966298</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991715729556296</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999075639444935</v>
+        <v>0.9999115669109291</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999782846702506</v>
+        <v>0.9998113827614422</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999481401725612</v>
+        <v>0.9999463252535031</v>
       </c>
       <c r="G6" t="n">
-        <v>2.778759120980496e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0007733002821751695</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I6" t="n">
-        <v>3.671173636594146e-05</v>
+        <v>5.174056146905466e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>1.027440400448775e-05</v>
+        <v>6.184881425984146e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>2.349307018521461e-05</v>
+        <v>5.679468786444806e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0003376524475419776</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M6" t="n">
-        <v>0.005271393668642568</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000054957236991</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O6" t="n">
-        <v>0.005495807810405894</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P6" t="n">
-        <v>94.98184199255041</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q6" t="n">
-        <v>140.0802475126738</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_20_3_5</t>
+          <t>model_20_3_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.999972173028887</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991654746576061</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9998887039028543</v>
+        <v>0.9999115669109291</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999721878126681</v>
+        <v>0.9998113827614422</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999366889145149</v>
+        <v>0.9999463252535031</v>
       </c>
       <c r="G7" t="n">
-        <v>2.5975256071198e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0007789927756959051</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I7" t="n">
-        <v>4.420215634023083e-05</v>
+        <v>5.174056146905466e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>1.315907481921962e-05</v>
+        <v>6.184881425984146e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>2.868061557972522e-05</v>
+        <v>5.679468786444806e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0003367437758846766</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M7" t="n">
-        <v>0.005096592594194478</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000051372869747</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O7" t="n">
-        <v>0.005313565092330441</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P7" t="n">
-        <v>95.11673232531228</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q7" t="n">
-        <v>140.2151378454357</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_20_3_6</t>
+          <t>model_20_3_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999732250449977</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9991593904018861</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9998676606913988</v>
+        <v>0.9999115669109291</v>
       </c>
       <c r="E8" t="n">
-        <v>0.999965227191098</v>
+        <v>0.9998113827614422</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999238295828352</v>
+        <v>0.9999463252535031</v>
       </c>
       <c r="G8" t="n">
-        <v>2.499324520995579e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0007846721613425429</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I8" t="n">
-        <v>5.255964008420088e-05</v>
+        <v>5.174056146905466e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>1.645242743964248e-05</v>
+        <v>6.184881425984146e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>3.450603376192168e-05</v>
+        <v>5.679468786444806e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003396354463743084</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M8" t="n">
-        <v>0.004999324475362226</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000049430686158</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O8" t="n">
-        <v>0.005212156068306736</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P8" t="n">
-        <v>95.19380992241234</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q8" t="n">
-        <v>140.2922154425358</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_20_3_7</t>
+          <t>model_20_3_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999738264942041</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C9" t="n">
-        <v>0.999152269699415</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9998476613135503</v>
+        <v>0.9999115669109291</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999576074551185</v>
+        <v>0.9998113827614422</v>
       </c>
       <c r="F9" t="n">
-        <v>0.999911083618481</v>
+        <v>0.9999463252535031</v>
       </c>
       <c r="G9" t="n">
-        <v>2.443181877637756e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0007913190245366326</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I9" t="n">
-        <v>6.05025567635313e-05</v>
+        <v>5.174056146905466e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>2.005763384286322e-05</v>
+        <v>6.184881425984146e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>4.028009530319726e-05</v>
+        <v>5.679468786444806e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0003422075145794538</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M9" t="n">
-        <v>0.004942855326264118</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000048320318393</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O9" t="n">
-        <v>0.005153282910624268</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P9" t="n">
-        <v>95.23924845397065</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q9" t="n">
-        <v>140.3376539740941</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_20_3_8</t>
+          <t>model_20_3_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999737201763242</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9991459842642163</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9998245732267952</v>
+        <v>0.9999115669109291</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999495869325277</v>
+        <v>0.9998113827614422</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9998967744088894</v>
+        <v>0.9999463252535031</v>
       </c>
       <c r="G10" t="n">
-        <v>2.453106185038102e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0007971862023957742</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I10" t="n">
-        <v>6.967217947735785e-05</v>
+        <v>5.174056146905466e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>2.385246866127589e-05</v>
+        <v>6.184881425984146e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>4.676232406931688e-05</v>
+        <v>5.679468786444806e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00034639969475776</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00495288419513126</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000048516597555</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O10" t="n">
-        <v>0.005163738729201704</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P10" t="n">
-        <v>95.23114082560878</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.3295463457322</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_20_3_9</t>
+          <t>model_20_3_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999731853288405</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9991395316198792</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9998022449001319</v>
+        <v>0.9999115669109291</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999404470250198</v>
+        <v>0.9998113827614422</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9998822136805462</v>
+        <v>0.9999463252535031</v>
       </c>
       <c r="G11" t="n">
-        <v>2.503031849938683e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.000803209462646131</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I11" t="n">
-        <v>7.85400572493639e-05</v>
+        <v>5.174056146905466e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>2.817692992354103e-05</v>
+        <v>6.184881425984146e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>5.335849358645246e-05</v>
+        <v>5.679468786444806e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0003515343397680452</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M11" t="n">
-        <v>0.005003030931284238</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000049504008294</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O11" t="n">
-        <v>0.00521602031573077</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P11" t="n">
-        <v>95.19084545579145</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q11" t="n">
-        <v>140.2892509759149</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_20_3_10</t>
+          <t>model_20_3_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999724399800195</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9991329108559336</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9997811465571941</v>
+        <v>0.9999115669109291</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999309432977044</v>
+        <v>0.9998113827614422</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9998680021271865</v>
+        <v>0.9999463252535031</v>
       </c>
       <c r="G12" t="n">
-        <v>2.5726068906782e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008093896551714221</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I12" t="n">
-        <v>8.691943691292888e-05</v>
+        <v>5.174056146905466e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>3.267352910551984e-05</v>
+        <v>6.184881425984146e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>5.979648300922435e-05</v>
+        <v>5.679468786444806e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0003561876661087812</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M12" t="n">
-        <v>0.005072087233751211</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000050880036887</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O12" t="n">
-        <v>0.005288016487960014</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P12" t="n">
-        <v>95.1360114516467</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q12" t="n">
-        <v>140.2344169717701</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_20_3_11</t>
+          <t>model_20_3_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999715241334725</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9991264277794049</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9997603382535852</v>
+        <v>0.9999115669109291</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999216881786076</v>
+        <v>0.9998113827614422</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9998540475412686</v>
+        <v>0.9999463252535031</v>
       </c>
       <c r="G13" t="n">
-        <v>2.658097145743024e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008154413225367873</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I13" t="n">
-        <v>9.518362508200486e-05</v>
+        <v>5.174056146905466e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>3.705250164737494e-05</v>
+        <v>6.184881425984146e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>6.61180633646899e-05</v>
+        <v>5.679468786444806e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0003590089074900339</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M13" t="n">
-        <v>0.005155673715183132</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000052570830512</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O13" t="n">
-        <v>0.005375161418954362</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P13" t="n">
-        <v>95.070629913822</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q13" t="n">
-        <v>140.1690354339454</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="14">
@@ -1182,602 +1182,602 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999704415113441</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C14" t="n">
-        <v>0.999119747709732</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9997409087037618</v>
+        <v>0.9999115669109291</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999120357518794</v>
+        <v>0.9998113827614422</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9998404898563307</v>
+        <v>0.9999463252535031</v>
       </c>
       <c r="G14" t="n">
-        <v>2.759155169265675e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008216768743553011</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0001029002298951152</v>
+        <v>5.174056146905466e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>4.161945655776903e-05</v>
+        <v>6.184881425984146e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>7.225984322644215e-05</v>
+        <v>5.679468786444806e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0003620748577569005</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M14" t="n">
-        <v>0.00525276609917639</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000054569517519</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O14" t="n">
-        <v>0.005476387226743156</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P14" t="n">
-        <v>94.9960018603818</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q14" t="n">
-        <v>140.0944073805052</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_20_3_13</t>
+          <t>model_20_3_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.999969481618348</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9991130996308347</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9997242747577254</v>
+        <v>0.9999115669109291</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999035343625119</v>
+        <v>0.9998113827614422</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9998287587270218</v>
+        <v>0.9999463252535031</v>
       </c>
       <c r="G15" t="n">
-        <v>2.84875696700075e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008278825641889701</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0001095065377721201</v>
+        <v>5.174056146905466e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>4.564180896819077e-05</v>
+        <v>6.184881425984146e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>7.757417337015542e-05</v>
+        <v>5.679468786444806e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0003627763161933814</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M15" t="n">
-        <v>0.005337374791974749</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000056341627665</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O15" t="n">
-        <v>0.00556459788675808</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P15" t="n">
-        <v>94.9320854355223</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q15" t="n">
-        <v>140.0304909556457</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_20_3_14</t>
+          <t>model_20_3_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999684236165229</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9991066133803447</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9997087947719205</v>
+        <v>0.9999115669109291</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9998947761476711</v>
+        <v>0.9998113827614422</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9998173993218306</v>
+        <v>0.9999463252535031</v>
       </c>
       <c r="G16" t="n">
-        <v>2.947516793276952e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008339371943079058</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0001156545408938883</v>
+        <v>5.174056146905466e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>4.978567593547587e-05</v>
+        <v>6.184881425984146e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>8.272010841468211e-05</v>
+        <v>5.679468786444806e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0003639533873379458</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M16" t="n">
-        <v>0.005429103787253428</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000058294861804</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O16" t="n">
-        <v>0.00566023197527097</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P16" t="n">
-        <v>94.86392482818491</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q16" t="n">
-        <v>139.9623303483083</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_20_3_15</t>
+          <t>model_20_3_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999672102311589</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9991006186121162</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9996927307512659</v>
+        <v>0.9999115669109291</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9998861410705281</v>
+        <v>0.9998113827614422</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9998058482073925</v>
+        <v>0.9999463252535031</v>
       </c>
       <c r="G17" t="n">
-        <v>3.060780990870451e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008395330473092701</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I17" t="n">
-        <v>0.000122034498238715</v>
+        <v>5.174056146905466e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>5.387128145936645e-05</v>
+        <v>6.184881425984146e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>8.79528898490407e-05</v>
+        <v>5.679468786444806e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0003656497232200049</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M17" t="n">
-        <v>0.005532432548952089</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000060534957861</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O17" t="n">
-        <v>0.005767959656275167</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P17" t="n">
-        <v>94.78851071159167</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q17" t="n">
-        <v>139.8869162317151</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_20_3_16</t>
+          <t>model_20_3_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999657919646904</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9990950529129056</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9996756812557281</v>
+        <v>0.9999115669109291</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9998770986677122</v>
+        <v>0.9998113827614422</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9997936523936178</v>
+        <v>0.9999463252535031</v>
       </c>
       <c r="G18" t="n">
-        <v>3.193169940234056e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008447283832164977</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0001288058450029493</v>
+        <v>5.174056146905466e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>5.814960929383313e-05</v>
+        <v>6.184881425984146e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>9.347772714839124e-05</v>
+        <v>5.679468786444806e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0003687043861178301</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M18" t="n">
-        <v>0.005650814047758125</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000063153295956</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O18" t="n">
-        <v>0.005891380900568862</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P18" t="n">
-        <v>94.70382265981192</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.8022281799354</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_20_3_17</t>
+          <t>model_20_3_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999644960862564</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C19" t="n">
-        <v>0.99908980082364</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9996610488979195</v>
+        <v>0.9999115669109291</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9998686682516446</v>
+        <v>0.9998113827614422</v>
       </c>
       <c r="F19" t="n">
-        <v>0.999782835731704</v>
+        <v>0.9999463252535031</v>
       </c>
       <c r="G19" t="n">
-        <v>3.314134503801759e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008496309780058548</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0001346172057250963</v>
+        <v>5.174056146905466e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>6.213838135508136e-05</v>
+        <v>6.184881425984146e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>9.837779354008882e-05</v>
+        <v>5.679468786444806e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0003712103336077691</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M19" t="n">
-        <v>0.005756852007652931</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000065545686911</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O19" t="n">
-        <v>0.006001933115945227</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P19" t="n">
-        <v>94.62945792049399</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q19" t="n">
-        <v>139.7278634406174</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_20_3_18</t>
+          <t>model_20_3_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999630568948072</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9990849507993854</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9996454866211116</v>
+        <v>0.9999115669109291</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9998600807437615</v>
+        <v>0.9998113827614422</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9997715294001135</v>
+        <v>0.9999463252535031</v>
       </c>
       <c r="G20" t="n">
-        <v>3.448476708249146e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008541582627559551</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0001407978913925676</v>
+        <v>5.174056146905466e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>6.620147993106171e-05</v>
+        <v>6.184881425984146e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0001034996856618147</v>
+        <v>5.679468786444806e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0003744665211716347</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M20" t="n">
-        <v>0.005872373207017028</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N20" t="n">
-        <v>1.00006820265574</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O20" t="n">
-        <v>0.006122372291928103</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P20" t="n">
-        <v>94.5499857305451</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q20" t="n">
-        <v>139.6483912506685</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_20_3_19</t>
+          <t>model_20_3_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999616817898781</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9990802283389761</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9996312035340538</v>
+        <v>0.9999115669109291</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9998518760451077</v>
+        <v>0.9998113827614422</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9997609837159813</v>
+        <v>0.9999463252535031</v>
       </c>
       <c r="G21" t="n">
-        <v>3.576836717376156e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008585664722559339</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0001464705363760515</v>
+        <v>5.174056146905466e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>7.008345592120628e-05</v>
+        <v>6.184881425984146e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0001082769961486289</v>
+        <v>5.679468786444806e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0003771927989266534</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M21" t="n">
-        <v>0.005980666114552923</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000070741310994</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O21" t="n">
-        <v>0.006235275452735023</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P21" t="n">
-        <v>94.47689330731832</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.5752988274417</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_20_3_20</t>
+          <t>model_20_3_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999606061508058</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9990759860274173</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9996194616444397</v>
+        <v>0.9999115669109291</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9998457472866245</v>
+        <v>0.9998113827614422</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9997526360680075</v>
+        <v>0.9999463252535031</v>
       </c>
       <c r="G22" t="n">
-        <v>3.677242903264161e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008625264838802192</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0001511339239858638</v>
+        <v>5.174056146905466e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>7.298322034705686e-05</v>
+        <v>6.184881425984146e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0001120585721664603</v>
+        <v>5.679468786444806e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0003776909655828968</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M22" t="n">
-        <v>0.006064027459753263</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000072727106205</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O22" t="n">
-        <v>0.006322185662982315</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P22" t="n">
-        <v>94.42152440931557</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q22" t="n">
-        <v>139.519929929439</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_20_3_21</t>
+          <t>model_20_3_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999592915667417</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C23" t="n">
-        <v>0.999071867554431</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9996064982257042</v>
+        <v>0.9999115669109291</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9998381976548367</v>
+        <v>0.9998113827614422</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9997430109530017</v>
+        <v>0.9999463252535031</v>
       </c>
       <c r="G23" t="n">
-        <v>3.799953555292228e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.000866370897632849</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0001562824518888471</v>
+        <v>5.174056146905466e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>7.655525761136024e-05</v>
+        <v>6.184881425984146e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0001164188547501037</v>
+        <v>5.679468786444806e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0003802154014518861</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M23" t="n">
-        <v>0.006164376331221373</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000075154030631</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O23" t="n">
-        <v>0.006426806593659624</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P23" t="n">
-        <v>94.3558732412082</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q23" t="n">
-        <v>139.4542787613316</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_20_3_22</t>
+          <t>model_20_3_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999581099602484</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9990681937868396</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9995948799812568</v>
+        <v>0.9999115669109291</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9998316064796715</v>
+        <v>0.9998113827614422</v>
       </c>
       <c r="F24" t="n">
-        <v>0.999734476023231</v>
+        <v>0.9999463252535031</v>
       </c>
       <c r="G24" t="n">
-        <v>3.910251334794738e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0008698001984196639</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0001608967328082601</v>
+        <v>5.174056146905466e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>7.967381014057125e-05</v>
+        <v>6.184881425984146e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0001202852714744157</v>
+        <v>5.679468786444806e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0003820604580782812</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M24" t="n">
-        <v>0.006253200248508549</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000077335458003</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O24" t="n">
-        <v>0.006519411928996573</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P24" t="n">
-        <v>94.29864762608034</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.3970531462038</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999571179615546</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9990647862446017</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9995849235527293</v>
+        <v>0.9999115669109291</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9998262031766316</v>
+        <v>0.9998113827614422</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9997272898845848</v>
+        <v>0.9999463252535031</v>
       </c>
       <c r="G25" t="n">
-        <v>4.002850058476962e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008729809895248791</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0001648510099271214</v>
+        <v>5.174056146905466e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>8.223033214742375e-05</v>
+        <v>6.184881425984146e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0001235406710372726</v>
+        <v>5.679468786444806e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0003827424676712511</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M25" t="n">
-        <v>0.006326808088188673</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000079166840207</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O25" t="n">
-        <v>0.006596153406801113</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P25" t="n">
-        <v>94.25183768589825</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q25" t="n">
-        <v>139.3502432060217</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999562460597485</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9990616399404687</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D26" t="n">
-        <v>0.999576418759623</v>
+        <v>0.9999115669109291</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9998213973407699</v>
+        <v>0.9998113827614422</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9997210520837788</v>
+        <v>0.9999463252535031</v>
       </c>
       <c r="G26" t="n">
-        <v>4.084238264868628e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008759179263262283</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0001682287581516164</v>
+        <v>5.174056146905466e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>8.450416817902774e-05</v>
+        <v>6.184881425984146e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0001263664631653221</v>
+        <v>5.679468786444806e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0003830429514585552</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M26" t="n">
-        <v>0.006390804538451029</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N26" t="n">
-        <v>1.00008077650508</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O26" t="n">
-        <v>0.006662874318442052</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P26" t="n">
-        <v>94.21158045062916</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q26" t="n">
-        <v>139.3099859707526</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
   </sheetData>
